--- a/data/pca/factorExposure/factorExposure_2017-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02275716629477954</v>
+        <v>0.00952707570630563</v>
       </c>
       <c r="C2">
-        <v>0.007843565827089494</v>
+        <v>-0.04289499831512936</v>
       </c>
       <c r="D2">
-        <v>0.02898449316127253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02963441368474767</v>
+      </c>
+      <c r="E2">
+        <v>0.03218148215864423</v>
+      </c>
+      <c r="F2">
+        <v>0.00930719674421967</v>
+      </c>
+      <c r="G2">
+        <v>-0.09861647218255387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01996770368543655</v>
+        <v>0.04318967873420127</v>
       </c>
       <c r="C3">
-        <v>-0.02113965259167286</v>
+        <v>-0.1026787476413942</v>
       </c>
       <c r="D3">
-        <v>0.1060827110160199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01820041730661962</v>
+      </c>
+      <c r="E3">
+        <v>0.1035336437768506</v>
+      </c>
+      <c r="F3">
+        <v>0.0007863089461256636</v>
+      </c>
+      <c r="G3">
+        <v>-0.1913273430693959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0251423544136853</v>
+        <v>0.05499704361733621</v>
       </c>
       <c r="C4">
-        <v>-0.001393792907743951</v>
+        <v>-0.06771386552780106</v>
       </c>
       <c r="D4">
-        <v>0.08439188223243033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02440279713151872</v>
+      </c>
+      <c r="E4">
+        <v>0.02762872788914885</v>
+      </c>
+      <c r="F4">
+        <v>0.01155077113456848</v>
+      </c>
+      <c r="G4">
+        <v>-0.09963276062675426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01222191494929527</v>
+        <v>0.03629847256299901</v>
       </c>
       <c r="C6">
-        <v>0.01184105940043759</v>
+        <v>-0.05230729385771472</v>
       </c>
       <c r="D6">
-        <v>0.07923201146114478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01682459728776647</v>
+      </c>
+      <c r="E6">
+        <v>0.03210052090688592</v>
+      </c>
+      <c r="F6">
+        <v>0.01091562093286034</v>
+      </c>
+      <c r="G6">
+        <v>-0.08231349645096193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01154672323935506</v>
+        <v>0.02079378247179551</v>
       </c>
       <c r="C7">
-        <v>0.001449245700242967</v>
+        <v>-0.03920542359970603</v>
       </c>
       <c r="D7">
-        <v>0.03579238044902653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01361994504845556</v>
+      </c>
+      <c r="E7">
+        <v>0.0006607118316868575</v>
+      </c>
+      <c r="F7">
+        <v>-0.003466632396837002</v>
+      </c>
+      <c r="G7">
+        <v>-0.1183670680345111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001970969341229228</v>
+        <v>0.003351298208421833</v>
       </c>
       <c r="C8">
-        <v>0.001880731861634429</v>
+        <v>-0.02470180822220944</v>
       </c>
       <c r="D8">
-        <v>0.003060849647343232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003929298281618733</v>
+      </c>
+      <c r="E8">
+        <v>0.02439456761941334</v>
+      </c>
+      <c r="F8">
+        <v>0.007147562593495773</v>
+      </c>
+      <c r="G8">
+        <v>-0.07102160529901408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01702960062146531</v>
+        <v>0.03302082461236368</v>
       </c>
       <c r="C9">
-        <v>-0.003179823443492194</v>
+        <v>-0.04864247953980485</v>
       </c>
       <c r="D9">
-        <v>0.0607021240342657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01648044219856338</v>
+      </c>
+      <c r="E9">
+        <v>0.0171524953126546</v>
+      </c>
+      <c r="F9">
+        <v>0.008144613251676883</v>
+      </c>
+      <c r="G9">
+        <v>-0.0994073910084201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05964132695851955</v>
+        <v>0.09916881788880071</v>
       </c>
       <c r="C10">
-        <v>-0.1781556467043614</v>
+        <v>0.1815910210106356</v>
       </c>
       <c r="D10">
-        <v>-0.09280648874061226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01506612490874848</v>
+      </c>
+      <c r="E10">
+        <v>0.02179474483880975</v>
+      </c>
+      <c r="F10">
+        <v>-0.02317295212815026</v>
+      </c>
+      <c r="G10">
+        <v>-0.05903475724990918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007467986972183963</v>
+        <v>0.03482108615035644</v>
       </c>
       <c r="C11">
-        <v>0.005330531157065</v>
+        <v>-0.05421936476056551</v>
       </c>
       <c r="D11">
-        <v>0.05557463583988426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002211690348951353</v>
+      </c>
+      <c r="E11">
+        <v>0.01033948140334788</v>
+      </c>
+      <c r="F11">
+        <v>0.02188722832696355</v>
+      </c>
+      <c r="G11">
+        <v>-0.09210056357756967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00479734103853295</v>
+        <v>0.03655300107772132</v>
       </c>
       <c r="C12">
-        <v>0.003467231379004459</v>
+        <v>-0.0488413443230168</v>
       </c>
       <c r="D12">
-        <v>0.04977090777342023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006270963821913534</v>
+      </c>
+      <c r="E12">
+        <v>0.004176084253678938</v>
+      </c>
+      <c r="F12">
+        <v>0.002612128272110684</v>
+      </c>
+      <c r="G12">
+        <v>-0.08350591771002282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.023958671693443</v>
+        <v>0.01617108314943288</v>
       </c>
       <c r="C13">
-        <v>-0.002466756446352137</v>
+        <v>-0.04141531674610043</v>
       </c>
       <c r="D13">
-        <v>0.03674400056744899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02613782187884851</v>
+      </c>
+      <c r="E13">
+        <v>0.02994468608079642</v>
+      </c>
+      <c r="F13">
+        <v>0.005823179700957149</v>
+      </c>
+      <c r="G13">
+        <v>-0.1329214376754029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009685989923184106</v>
+        <v>0.00870978760345217</v>
       </c>
       <c r="C14">
-        <v>-0.00601069711118886</v>
+        <v>-0.02861344271208049</v>
       </c>
       <c r="D14">
-        <v>0.01668686359250683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.009898427588304793</v>
+      </c>
+      <c r="E14">
+        <v>0.004067811937069593</v>
+      </c>
+      <c r="F14">
+        <v>-0.008042376795930357</v>
+      </c>
+      <c r="G14">
+        <v>-0.1022699611088904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002149282218247449</v>
+        <v>0.03327971223132681</v>
       </c>
       <c r="C16">
-        <v>-0.003593515019071739</v>
+        <v>-0.04722546965866843</v>
       </c>
       <c r="D16">
-        <v>0.04489036630790685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001793688824620476</v>
+      </c>
+      <c r="E16">
+        <v>0.009947796420776533</v>
+      </c>
+      <c r="F16">
+        <v>0.003924675459522298</v>
+      </c>
+      <c r="G16">
+        <v>-0.09338494319311368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01346774374433259</v>
+        <v>0.02177904841144371</v>
       </c>
       <c r="C19">
-        <v>0.001541510353915389</v>
+        <v>-0.05443463220080996</v>
       </c>
       <c r="D19">
-        <v>0.04821375248158362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0188091684984262</v>
+      </c>
+      <c r="E19">
+        <v>0.07057761572212944</v>
+      </c>
+      <c r="F19">
+        <v>0.01984465064870742</v>
+      </c>
+      <c r="G19">
+        <v>-0.1356744809867806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01034048686223024</v>
+        <v>0.01521474914805694</v>
       </c>
       <c r="C20">
-        <v>0.003069376022953619</v>
+        <v>-0.04007342506199256</v>
       </c>
       <c r="D20">
-        <v>0.03527386679883404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01408300240085137</v>
+      </c>
+      <c r="E20">
+        <v>0.03054958309822053</v>
+      </c>
+      <c r="F20">
+        <v>-0.01209844268098576</v>
+      </c>
+      <c r="G20">
+        <v>-0.1116168084550438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01546610465631908</v>
+        <v>0.01254050162165828</v>
       </c>
       <c r="C21">
-        <v>-0.003586140261740429</v>
+        <v>-0.03965941133660997</v>
       </c>
       <c r="D21">
-        <v>0.0354162066668661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01878993575906143</v>
+      </c>
+      <c r="E21">
+        <v>0.04396167287657469</v>
+      </c>
+      <c r="F21">
+        <v>0.00313849909669888</v>
+      </c>
+      <c r="G21">
+        <v>-0.1330348485083064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001072121661370921</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002721639430793006</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0004391679492354492</v>
+      </c>
+      <c r="E22">
+        <v>0.001852379475533442</v>
+      </c>
+      <c r="F22">
+        <v>0.001165914702128539</v>
+      </c>
+      <c r="G22">
+        <v>-0.003227856734118511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001076471894262067</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002717599349056596</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0004392829542909877</v>
+      </c>
+      <c r="E23">
+        <v>0.001858060689914571</v>
+      </c>
+      <c r="F23">
+        <v>0.001164445085735385</v>
+      </c>
+      <c r="G23">
+        <v>-0.00324199998365621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.002273798371669702</v>
+        <v>0.02895494207208936</v>
       </c>
       <c r="C24">
-        <v>0.009489926870313234</v>
+        <v>-0.05167206828360021</v>
       </c>
       <c r="D24">
-        <v>0.04963446392098801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007006239176954317</v>
+      </c>
+      <c r="E24">
+        <v>0.006261733091608825</v>
+      </c>
+      <c r="F24">
+        <v>0.01325785134199988</v>
+      </c>
+      <c r="G24">
+        <v>-0.0921628553019307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01297970847793723</v>
+        <v>0.04319228297378635</v>
       </c>
       <c r="C25">
-        <v>-0.003972020334538297</v>
+        <v>-0.05883338659979617</v>
       </c>
       <c r="D25">
-        <v>0.05938808953104441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01102755597477624</v>
+      </c>
+      <c r="E25">
+        <v>-0.001027448021412351</v>
+      </c>
+      <c r="F25">
+        <v>0.006334522954781666</v>
+      </c>
+      <c r="G25">
+        <v>-0.1019683258638379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02277670157427604</v>
+        <v>0.01419007311646171</v>
       </c>
       <c r="C26">
-        <v>0.002133278017061572</v>
+        <v>-0.01112216742177296</v>
       </c>
       <c r="D26">
-        <v>0.001272440553888629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02401020785460582</v>
+      </c>
+      <c r="E26">
+        <v>0.008148395034937497</v>
+      </c>
+      <c r="F26">
+        <v>-0.00799582555586047</v>
+      </c>
+      <c r="G26">
+        <v>-0.08260088546077216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09254987717127607</v>
+        <v>0.1260994966309348</v>
       </c>
       <c r="C28">
-        <v>-0.2318484943806106</v>
+        <v>0.2381720187850341</v>
       </c>
       <c r="D28">
-        <v>-0.1154299372720202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005895595161886725</v>
+      </c>
+      <c r="E28">
+        <v>0.008312449596215674</v>
+      </c>
+      <c r="F28">
+        <v>-0.01503792055322363</v>
+      </c>
+      <c r="G28">
+        <v>-0.04705172954417041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01108838007801958</v>
+        <v>0.009372765062780687</v>
       </c>
       <c r="C29">
-        <v>-0.01063555310803587</v>
+        <v>-0.02241616203304055</v>
       </c>
       <c r="D29">
-        <v>0.01779092183635238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008951707602017444</v>
+      </c>
+      <c r="E29">
+        <v>0.001996388691352008</v>
+      </c>
+      <c r="F29">
+        <v>-0.01692416786023401</v>
+      </c>
+      <c r="G29">
+        <v>-0.09649725547725348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01966636916785558</v>
+        <v>0.04066116416658599</v>
       </c>
       <c r="C30">
-        <v>0.01936909374178967</v>
+        <v>-0.07098426388117836</v>
       </c>
       <c r="D30">
-        <v>0.102938075745431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0286951193755756</v>
+      </c>
+      <c r="E30">
+        <v>0.05054929126321648</v>
+      </c>
+      <c r="F30">
+        <v>0.0467628676098055</v>
+      </c>
+      <c r="G30">
+        <v>-0.1265061085921403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01484923624194168</v>
+        <v>0.05323798983228799</v>
       </c>
       <c r="C31">
-        <v>-0.02591037046239552</v>
+        <v>-0.03767095802354516</v>
       </c>
       <c r="D31">
-        <v>0.03757908177059448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003682921649229673</v>
+      </c>
+      <c r="E31">
+        <v>-0.001309768728109456</v>
+      </c>
+      <c r="F31">
+        <v>-0.04060541515698432</v>
+      </c>
+      <c r="G31">
+        <v>-0.1005765672922827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001261904010113539</v>
+        <v>0.002113926989854347</v>
       </c>
       <c r="C32">
-        <v>-0.02034850400382069</v>
+        <v>-0.02408752783923269</v>
       </c>
       <c r="D32">
-        <v>0.005592787969742073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003535233054331327</v>
+      </c>
+      <c r="E32">
+        <v>0.02232256793697551</v>
+      </c>
+      <c r="F32">
+        <v>0.03879553453584721</v>
+      </c>
+      <c r="G32">
+        <v>-0.07784639329417634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0123599408119</v>
+        <v>0.02768979239624254</v>
       </c>
       <c r="C33">
-        <v>-0.0006055700449852993</v>
+        <v>-0.05101323567249401</v>
       </c>
       <c r="D33">
-        <v>0.04365742560803513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01554221565044489</v>
+      </c>
+      <c r="E33">
+        <v>0.03511721398812041</v>
+      </c>
+      <c r="F33">
+        <v>0.01699606991310051</v>
+      </c>
+      <c r="G33">
+        <v>-0.1623586545029737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.001470048828743644</v>
+        <v>0.0406965077415354</v>
       </c>
       <c r="C34">
-        <v>-0.01141972571082149</v>
+        <v>-0.06047961796362917</v>
       </c>
       <c r="D34">
-        <v>0.05673733448556058</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004867835879105171</v>
+      </c>
+      <c r="E34">
+        <v>0.0009621127026116264</v>
+      </c>
+      <c r="F34">
+        <v>0.02051843588798473</v>
+      </c>
+      <c r="G34">
+        <v>-0.09596765733499396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01508131475422077</v>
+        <v>0.01633066688099303</v>
       </c>
       <c r="C36">
-        <v>-0.01040439675834115</v>
+        <v>-0.009390000346560214</v>
       </c>
       <c r="D36">
-        <v>0.00634462647107913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01235974773309556</v>
+      </c>
+      <c r="E36">
+        <v>0.005552375235217049</v>
+      </c>
+      <c r="F36">
+        <v>-0.006558575828790542</v>
+      </c>
+      <c r="G36">
+        <v>-0.09154723044347246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001871976929338646</v>
+        <v>0.03187661612902842</v>
       </c>
       <c r="C38">
-        <v>-0.02520887213458459</v>
+        <v>-0.03145550307700574</v>
       </c>
       <c r="D38">
-        <v>0.04941703628841122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007605591428332312</v>
+      </c>
+      <c r="E38">
+        <v>0.003079066249630995</v>
+      </c>
+      <c r="F38">
+        <v>-0.02087742811910346</v>
+      </c>
+      <c r="G38">
+        <v>-0.08617953592753758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.001922344690207388</v>
+        <v>0.03647763772685984</v>
       </c>
       <c r="C39">
-        <v>0.03260250311924938</v>
+        <v>-0.08115877416972737</v>
       </c>
       <c r="D39">
-        <v>0.1009207445816474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01148217678334009</v>
+      </c>
+      <c r="E39">
+        <v>0.02177692274571676</v>
+      </c>
+      <c r="F39">
+        <v>0.02489711565849527</v>
+      </c>
+      <c r="G39">
+        <v>-0.08994561540925618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01279368163100832</v>
+        <v>0.01429590574540479</v>
       </c>
       <c r="C40">
-        <v>-0.003373102303376927</v>
+        <v>-0.04234635828462919</v>
       </c>
       <c r="D40">
-        <v>0.0398042540084617</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01472385419454208</v>
+      </c>
+      <c r="E40">
+        <v>0.02041409272780161</v>
+      </c>
+      <c r="F40">
+        <v>-0.01666330254477746</v>
+      </c>
+      <c r="G40">
+        <v>-0.126121182510034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01052972488841667</v>
+        <v>0.02095216102561374</v>
       </c>
       <c r="C41">
-        <v>-0.02006578215585795</v>
+        <v>-0.002283885174845771</v>
       </c>
       <c r="D41">
-        <v>-0.01115494378395462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004159134359104902</v>
+      </c>
+      <c r="E41">
+        <v>0.003308609295772643</v>
+      </c>
+      <c r="F41">
+        <v>-0.0157527843458591</v>
+      </c>
+      <c r="G41">
+        <v>-0.08233879267290012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08116664794508863</v>
+        <v>0.008823027753960449</v>
       </c>
       <c r="C42">
-        <v>0.05316780454173967</v>
+        <v>-0.03401061777573875</v>
       </c>
       <c r="D42">
-        <v>0.1617148458161259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08985544646593241</v>
+      </c>
+      <c r="E42">
+        <v>0.004446254314815683</v>
+      </c>
+      <c r="F42">
+        <v>-0.03867439252370317</v>
+      </c>
+      <c r="G42">
+        <v>0.03071890894975393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01116408290281275</v>
+        <v>0.03483515136192582</v>
       </c>
       <c r="C43">
-        <v>-0.01932652784172703</v>
+        <v>-0.01827120555503964</v>
       </c>
       <c r="D43">
-        <v>-0.005717489011895573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005864538050431884</v>
+      </c>
+      <c r="E43">
+        <v>0.0171668515704281</v>
+      </c>
+      <c r="F43">
+        <v>-0.004892809509214577</v>
+      </c>
+      <c r="G43">
+        <v>-0.1213110071167374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0016938784960378</v>
+        <v>0.01281471737962769</v>
       </c>
       <c r="C44">
-        <v>0.005356987769256674</v>
+        <v>-0.0589304218686019</v>
       </c>
       <c r="D44">
-        <v>0.0537697427265238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006788341008729781</v>
+      </c>
+      <c r="E44">
+        <v>0.0196057499684916</v>
+      </c>
+      <c r="F44">
+        <v>-0.006861468248647175</v>
+      </c>
+      <c r="G44">
+        <v>-0.1068363303771337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01171153047564948</v>
+        <v>0.007765405943799768</v>
       </c>
       <c r="C46">
-        <v>-0.003798384566471141</v>
+        <v>-0.0171748223592332</v>
       </c>
       <c r="D46">
-        <v>0.004002295036403291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01256226662498179</v>
+      </c>
+      <c r="E46">
+        <v>0.001350175175790512</v>
+      </c>
+      <c r="F46">
+        <v>-0.01571460985739512</v>
+      </c>
+      <c r="G46">
+        <v>-0.1027048348742466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0105496566907526</v>
+        <v>0.07729130257638761</v>
       </c>
       <c r="C47">
-        <v>-0.03300228922845162</v>
+        <v>-0.06734967501549148</v>
       </c>
       <c r="D47">
-        <v>0.074922951151273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005120183368903834</v>
+      </c>
+      <c r="E47">
+        <v>-0.006943638967968658</v>
+      </c>
+      <c r="F47">
+        <v>-0.05508629146209822</v>
+      </c>
+      <c r="G47">
+        <v>-0.08884536771771889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.006038751988584081</v>
+        <v>0.01950736805210574</v>
       </c>
       <c r="C48">
-        <v>-0.01284775560199884</v>
+        <v>-0.01279682663990577</v>
       </c>
       <c r="D48">
-        <v>0.01987595303150702</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.001950338408173302</v>
+      </c>
+      <c r="E48">
+        <v>0.002877510204596419</v>
+      </c>
+      <c r="F48">
+        <v>-0.01974753222121903</v>
+      </c>
+      <c r="G48">
+        <v>-0.09590628637631521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.01391095248838409</v>
+        <v>0.07512144489877304</v>
       </c>
       <c r="C50">
-        <v>-0.03665235683336893</v>
+        <v>-0.07156287316829231</v>
       </c>
       <c r="D50">
-        <v>0.07115242729154325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002354444301070641</v>
+      </c>
+      <c r="E50">
+        <v>-0.004248378771768613</v>
+      </c>
+      <c r="F50">
+        <v>-0.05546038425821908</v>
+      </c>
+      <c r="G50">
+        <v>-0.09373508359673394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008430091286114338</v>
+        <v>0.01471372681818606</v>
       </c>
       <c r="C51">
-        <v>-0.005684070212614256</v>
+        <v>-0.03656187127097146</v>
       </c>
       <c r="D51">
-        <v>0.02075347766064686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0104832055347369</v>
+      </c>
+      <c r="E51">
+        <v>0.0203621314450984</v>
+      </c>
+      <c r="F51">
+        <v>0.02295809970686932</v>
+      </c>
+      <c r="G51">
+        <v>-0.1258067325921905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01346786215457342</v>
+        <v>0.08184153066215361</v>
       </c>
       <c r="C53">
-        <v>-0.03224620949258642</v>
+        <v>-0.08565471073563635</v>
       </c>
       <c r="D53">
-        <v>0.1329822795022207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003471138128206129</v>
+      </c>
+      <c r="E53">
+        <v>-0.024257973985714</v>
+      </c>
+      <c r="F53">
+        <v>-0.0659772715100137</v>
+      </c>
+      <c r="G53">
+        <v>-0.09394023954747392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.009664832123703691</v>
+        <v>0.03254710433230624</v>
       </c>
       <c r="C54">
-        <v>-0.03634184234388308</v>
+        <v>-0.01755062298524484</v>
       </c>
       <c r="D54">
-        <v>-0.001848148523145462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.00165831947690561</v>
+      </c>
+      <c r="E54">
+        <v>0.01400457811582673</v>
+      </c>
+      <c r="F54">
+        <v>-0.004572890325923108</v>
+      </c>
+      <c r="G54">
+        <v>-0.1073850399529147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.006882754494022745</v>
+        <v>0.07183831097896316</v>
       </c>
       <c r="C55">
-        <v>-0.0189915478810327</v>
+        <v>-0.06896992601966438</v>
       </c>
       <c r="D55">
-        <v>0.1078314315642787</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00509355816482718</v>
+      </c>
+      <c r="E55">
+        <v>-0.0224668551487501</v>
+      </c>
+      <c r="F55">
+        <v>-0.06305522081683998</v>
+      </c>
+      <c r="G55">
+        <v>-0.06877334059523563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.01602275428943984</v>
+        <v>0.1372765699971665</v>
       </c>
       <c r="C56">
-        <v>-0.05132639769399301</v>
+        <v>-0.1084725091595834</v>
       </c>
       <c r="D56">
-        <v>0.1647616735114933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01267800732733006</v>
+      </c>
+      <c r="E56">
+        <v>-0.0323949759944763</v>
+      </c>
+      <c r="F56">
+        <v>-0.08123157587797167</v>
+      </c>
+      <c r="G56">
+        <v>-0.04622100191294463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02435168595685115</v>
+        <v>0.005646524257415768</v>
       </c>
       <c r="C57">
-        <v>0.001329549514866703</v>
+        <v>-0.007441750872794096</v>
       </c>
       <c r="D57">
-        <v>0.03716659913233725</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02337863011027862</v>
+      </c>
+      <c r="E57">
+        <v>0.02495085714380846</v>
+      </c>
+      <c r="F57">
+        <v>0.01103145467894763</v>
+      </c>
+      <c r="G57">
+        <v>-0.02793408239327344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01910505461193349</v>
+        <v>0.05170061705943779</v>
       </c>
       <c r="C58">
-        <v>-0.04068556142750285</v>
+        <v>-0.05488427164803322</v>
       </c>
       <c r="D58">
-        <v>0.1692083258019913</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02305037187064776</v>
+      </c>
+      <c r="E58">
+        <v>0.9344331044323186</v>
+      </c>
+      <c r="F58">
+        <v>-0.2248878173318611</v>
+      </c>
+      <c r="G58">
+        <v>0.1897258060647876</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.09661642850014009</v>
+        <v>0.1604451439786591</v>
       </c>
       <c r="C59">
-        <v>-0.2557060813321605</v>
+        <v>0.2030124296209424</v>
       </c>
       <c r="D59">
-        <v>-0.09804175396649366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01138899252116611</v>
+      </c>
+      <c r="E59">
+        <v>0.01886195232824377</v>
+      </c>
+      <c r="F59">
+        <v>-0.0005442375398381534</v>
+      </c>
+      <c r="G59">
+        <v>-0.03953348673370564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.08071743397346143</v>
+        <v>0.2879914398647203</v>
       </c>
       <c r="C60">
-        <v>-0.1585663607224901</v>
+        <v>-0.1079593510673172</v>
       </c>
       <c r="D60">
-        <v>0.1364979279705294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01166366543066175</v>
+      </c>
+      <c r="E60">
+        <v>-0.00947784784474408</v>
+      </c>
+      <c r="F60">
+        <v>0.3438200435646343</v>
+      </c>
+      <c r="G60">
+        <v>0.1610726531612882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002309450314738506</v>
+        <v>0.03810216842699721</v>
       </c>
       <c r="C61">
-        <v>0.00473315675484508</v>
+        <v>-0.06661073046831058</v>
       </c>
       <c r="D61">
-        <v>0.0737031857594798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005277451736524149</v>
+      </c>
+      <c r="E61">
+        <v>0.01490155922120606</v>
+      </c>
+      <c r="F61">
+        <v>0.01615018426922946</v>
+      </c>
+      <c r="G61">
+        <v>-0.09238864530166836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00814135415493086</v>
+        <v>0.01534673341093179</v>
       </c>
       <c r="C63">
-        <v>0.0001796434313358165</v>
+        <v>-0.02996751901923222</v>
       </c>
       <c r="D63">
-        <v>0.02643081350753033</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008489758770482138</v>
+      </c>
+      <c r="E63">
+        <v>0.00247676032123961</v>
+      </c>
+      <c r="F63">
+        <v>-0.01759200000447472</v>
+      </c>
+      <c r="G63">
+        <v>-0.09464772345816959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01242734724373075</v>
+        <v>0.04782522519972206</v>
       </c>
       <c r="C64">
-        <v>-0.01693411317322111</v>
+        <v>-0.04719671840745728</v>
       </c>
       <c r="D64">
-        <v>0.06275178064301702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006184441631916526</v>
+      </c>
+      <c r="E64">
+        <v>0.0006459004023378085</v>
+      </c>
+      <c r="F64">
+        <v>0.007188203115787992</v>
+      </c>
+      <c r="G64">
+        <v>-0.09553836396979991</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01962722502886113</v>
+        <v>0.07435185463308663</v>
       </c>
       <c r="C65">
-        <v>-0.0008587567975355724</v>
+        <v>-0.05966016270880238</v>
       </c>
       <c r="D65">
-        <v>0.1050591293358164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.016438783458712</v>
+      </c>
+      <c r="E65">
+        <v>0.03352648100213203</v>
+      </c>
+      <c r="F65">
+        <v>0.03160285281047155</v>
+      </c>
+      <c r="G65">
+        <v>-0.03550745976455166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002212739004879223</v>
+        <v>0.05113186860437025</v>
       </c>
       <c r="C66">
-        <v>0.03328829802377153</v>
+        <v>-0.1083642545516406</v>
       </c>
       <c r="D66">
-        <v>0.1336040960048589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01144030233879086</v>
+      </c>
+      <c r="E66">
+        <v>0.03081047651758205</v>
+      </c>
+      <c r="F66">
+        <v>0.03636938351777747</v>
+      </c>
+      <c r="G66">
+        <v>-0.1056018701162289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.01229018284290395</v>
+        <v>0.05490135805061599</v>
       </c>
       <c r="C67">
-        <v>-0.04292129116149897</v>
+        <v>-0.03485110497235796</v>
       </c>
       <c r="D67">
-        <v>0.06741641517018362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006080714771226017</v>
+      </c>
+      <c r="E67">
+        <v>-0.004142409132694536</v>
+      </c>
+      <c r="F67">
+        <v>-0.01965771171614485</v>
+      </c>
+      <c r="G67">
+        <v>-0.07642380056931129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1110316903168158</v>
+        <v>0.1549081212220746</v>
       </c>
       <c r="C68">
-        <v>-0.2422899901515286</v>
+        <v>0.2699042734717528</v>
       </c>
       <c r="D68">
-        <v>-0.1499937510747716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006298020705017928</v>
+      </c>
+      <c r="E68">
+        <v>0.01555432729839864</v>
+      </c>
+      <c r="F68">
+        <v>-0.03132366205668793</v>
+      </c>
+      <c r="G68">
+        <v>-0.02656700512544537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.007215715958009</v>
+        <v>0.0822283074614283</v>
       </c>
       <c r="C69">
-        <v>-0.03336038592811837</v>
+        <v>-0.07062271731235682</v>
       </c>
       <c r="D69">
-        <v>0.07984889148901159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008941259040340016</v>
+      </c>
+      <c r="E69">
+        <v>-0.02179777906500367</v>
+      </c>
+      <c r="F69">
+        <v>-0.036564532505234</v>
+      </c>
+      <c r="G69">
+        <v>-0.1022395483818401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.08673063522828461</v>
+        <v>0.140888460694674</v>
       </c>
       <c r="C71">
-        <v>-0.2047444135570831</v>
+        <v>0.2281422191000588</v>
       </c>
       <c r="D71">
-        <v>-0.09686306429412821</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002414391678542679</v>
+      </c>
+      <c r="E71">
+        <v>0.03542181855575513</v>
+      </c>
+      <c r="F71">
+        <v>-0.01841076856683254</v>
+      </c>
+      <c r="G71">
+        <v>-0.06940308755408674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002804877407104012</v>
+        <v>0.08450981609155948</v>
       </c>
       <c r="C72">
-        <v>-0.02240841186784193</v>
+        <v>-0.07162901873824042</v>
       </c>
       <c r="D72">
-        <v>0.1050937339587829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00845059256198087</v>
+      </c>
+      <c r="E72">
+        <v>-0.006579189546393714</v>
+      </c>
+      <c r="F72">
+        <v>0.03873716025839198</v>
+      </c>
+      <c r="G72">
+        <v>-0.09071746933469733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.09321032903897424</v>
+        <v>0.3756692730022828</v>
       </c>
       <c r="C73">
-        <v>-0.1606918091849802</v>
+        <v>-0.1209085297855948</v>
       </c>
       <c r="D73">
-        <v>0.2653990627271232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02058922219219902</v>
+      </c>
+      <c r="E73">
+        <v>0.06037890732058509</v>
+      </c>
+      <c r="F73">
+        <v>0.5771799395556103</v>
+      </c>
+      <c r="G73">
+        <v>0.2845400568405627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.01478299146373206</v>
+        <v>0.104775544430243</v>
       </c>
       <c r="C74">
-        <v>-0.05029543322770393</v>
+        <v>-0.1094077534199306</v>
       </c>
       <c r="D74">
-        <v>0.1768184630620248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009491547967594119</v>
+      </c>
+      <c r="E74">
+        <v>-0.007723725490807722</v>
+      </c>
+      <c r="F74">
+        <v>-0.06938282138941378</v>
+      </c>
+      <c r="G74">
+        <v>-0.0865737190673789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.03937217582554783</v>
+        <v>0.2487377644313348</v>
       </c>
       <c r="C75">
-        <v>-0.127511074830831</v>
+        <v>-0.1528217216678846</v>
       </c>
       <c r="D75">
-        <v>0.3087206484248436</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03086138579833448</v>
+      </c>
+      <c r="E75">
+        <v>-0.05820566320328584</v>
+      </c>
+      <c r="F75">
+        <v>-0.1786581236220572</v>
+      </c>
+      <c r="G75">
+        <v>0.01006718323123837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.01329079915815859</v>
+        <v>0.1193302955226458</v>
       </c>
       <c r="C76">
-        <v>-0.06386937616695336</v>
+        <v>-0.1087252629714559</v>
       </c>
       <c r="D76">
-        <v>0.2194351863390968</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01864534608254842</v>
+      </c>
+      <c r="E76">
+        <v>-0.02841075412203727</v>
+      </c>
+      <c r="F76">
+        <v>-0.1102721628591299</v>
+      </c>
+      <c r="G76">
+        <v>-0.05835095200261824</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01597521718282316</v>
+        <v>0.06769248887603915</v>
       </c>
       <c r="C77">
-        <v>-0.009429730652888494</v>
+        <v>-0.05978140191137057</v>
       </c>
       <c r="D77">
-        <v>0.06842570637615976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01096268068749587</v>
+      </c>
+      <c r="E77">
+        <v>0.04264513387929296</v>
+      </c>
+      <c r="F77">
+        <v>0.01329172344753769</v>
+      </c>
+      <c r="G77">
+        <v>-0.06285629316449493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004423414398130021</v>
+        <v>0.04173406970091027</v>
       </c>
       <c r="C78">
-        <v>0.0004813800154794573</v>
+        <v>-0.05172382696254168</v>
       </c>
       <c r="D78">
-        <v>0.05734103026183318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005515171971187338</v>
+      </c>
+      <c r="E78">
+        <v>0.02315789309444882</v>
+      </c>
+      <c r="F78">
+        <v>0.03784236531525069</v>
+      </c>
+      <c r="G78">
+        <v>-0.09650575921338751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02345818199084035</v>
+        <v>0.04312522008395377</v>
       </c>
       <c r="C80">
-        <v>-0.02670921542108243</v>
+        <v>-0.05064793132144404</v>
       </c>
       <c r="D80">
-        <v>0.08726169112053354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0130078106858858</v>
+      </c>
+      <c r="E80">
+        <v>0.02177964101736115</v>
+      </c>
+      <c r="F80">
+        <v>0.0180424446746681</v>
+      </c>
+      <c r="G80">
+        <v>-0.05456046711605487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.02329250638671511</v>
+        <v>0.1374124426739317</v>
       </c>
       <c r="C81">
-        <v>-0.07255110708722584</v>
+        <v>-0.09549343101567849</v>
       </c>
       <c r="D81">
-        <v>0.1782189273394074</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01518485025423268</v>
+      </c>
+      <c r="E81">
+        <v>-0.03455572130065619</v>
+      </c>
+      <c r="F81">
+        <v>-0.1303714519861146</v>
+      </c>
+      <c r="G81">
+        <v>-0.02341965546749062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1298206334769701</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07703138786845952</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.008552995094495483</v>
+      </c>
+      <c r="E82">
+        <v>-0.09207863751661417</v>
+      </c>
+      <c r="F82">
+        <v>-0.04878496543428669</v>
+      </c>
+      <c r="G82">
+        <v>-0.06413397875163662</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01039452358134805</v>
+        <v>0.03618035350291745</v>
       </c>
       <c r="C83">
-        <v>-0.01489694535259553</v>
+        <v>-0.03004332095964007</v>
       </c>
       <c r="D83">
-        <v>0.03474101747671455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005985307719774087</v>
+      </c>
+      <c r="E83">
+        <v>0.02907845346423683</v>
+      </c>
+      <c r="F83">
+        <v>0.03234723812216377</v>
+      </c>
+      <c r="G83">
+        <v>-0.06139649911360617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.03533936581568331</v>
+        <v>0.2127224591549761</v>
       </c>
       <c r="C85">
-        <v>-0.08118027498844153</v>
+        <v>-0.1462690470547809</v>
       </c>
       <c r="D85">
-        <v>0.2693950093210468</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01788397764354254</v>
+      </c>
+      <c r="E85">
+        <v>-0.09903306331391061</v>
+      </c>
+      <c r="F85">
+        <v>-0.133077057198014</v>
+      </c>
+      <c r="G85">
+        <v>0.06956947813789376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008682080075002201</v>
+        <v>0.01278163331655763</v>
       </c>
       <c r="C86">
-        <v>-0.005966063454077468</v>
+        <v>-0.02865044356817412</v>
       </c>
       <c r="D86">
-        <v>0.05711924507725016</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01206018362111629</v>
+      </c>
+      <c r="E86">
+        <v>0.04762887287834489</v>
+      </c>
+      <c r="F86">
+        <v>0.02953006636215323</v>
+      </c>
+      <c r="G86">
+        <v>-0.1933279589238789</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004870779678984393</v>
+        <v>0.02175219298894869</v>
       </c>
       <c r="C87">
-        <v>0.01193351734396032</v>
+        <v>-0.02331545430376128</v>
       </c>
       <c r="D87">
-        <v>0.0499831813530096</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01165434466470333</v>
+      </c>
+      <c r="E87">
+        <v>0.08657842184491547</v>
+      </c>
+      <c r="F87">
+        <v>0.01310682652268221</v>
+      </c>
+      <c r="G87">
+        <v>-0.1233255554248596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03248518470836796</v>
+        <v>0.09317936315851873</v>
       </c>
       <c r="C88">
-        <v>-0.01912355422742553</v>
+        <v>-0.06874414956652942</v>
       </c>
       <c r="D88">
-        <v>0.05717542689920568</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02224905556626672</v>
+      </c>
+      <c r="E88">
+        <v>-0.006571667910759045</v>
+      </c>
+      <c r="F88">
+        <v>-0.01997740924254843</v>
+      </c>
+      <c r="G88">
+        <v>-0.09685930184710913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1637933862482417</v>
+        <v>0.2340812031901727</v>
       </c>
       <c r="C89">
-        <v>-0.3812324110042974</v>
+        <v>0.3668444740892522</v>
       </c>
       <c r="D89">
-        <v>-0.173382591545491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003561963544847401</v>
+      </c>
+      <c r="E89">
+        <v>-0.01119085995455485</v>
+      </c>
+      <c r="F89">
+        <v>-0.02475867818870336</v>
+      </c>
+      <c r="G89">
+        <v>-0.06777108763646553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1293489858551756</v>
+        <v>0.2087654325099108</v>
       </c>
       <c r="C90">
-        <v>-0.3071966610993022</v>
+        <v>0.3188920049034894</v>
       </c>
       <c r="D90">
-        <v>-0.1639433321229757</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004384268089520518</v>
+      </c>
+      <c r="E90">
+        <v>-0.0032887347154546</v>
+      </c>
+      <c r="F90">
+        <v>-0.05273471989918226</v>
+      </c>
+      <c r="G90">
+        <v>-0.04360085361972368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.03114057255225479</v>
+        <v>0.1860500080438829</v>
       </c>
       <c r="C91">
-        <v>-0.1076792059331474</v>
+        <v>-0.1394107658907694</v>
       </c>
       <c r="D91">
-        <v>0.2277846365286371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02230544528201047</v>
+      </c>
+      <c r="E91">
+        <v>-0.06115570984839445</v>
+      </c>
+      <c r="F91">
+        <v>-0.1460236661825662</v>
+      </c>
+      <c r="G91">
+        <v>-0.03261892220911872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.09593263124981617</v>
+        <v>0.2001273433936589</v>
       </c>
       <c r="C92">
-        <v>-0.3075622311858173</v>
+        <v>0.2575555560911937</v>
       </c>
       <c r="D92">
-        <v>-0.05747405308875975</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03765126869461864</v>
+      </c>
+      <c r="E92">
+        <v>0.04291882215300608</v>
+      </c>
+      <c r="F92">
+        <v>-0.05920697466068231</v>
+      </c>
+      <c r="G92">
+        <v>-0.1223539721377895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1324733088692726</v>
+        <v>0.2334086429355854</v>
       </c>
       <c r="C93">
-        <v>-0.3287709667069662</v>
+        <v>0.3136035188575549</v>
       </c>
       <c r="D93">
-        <v>-0.1279513456130029</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01120290402706333</v>
+      </c>
+      <c r="E93">
+        <v>0.009014142419127954</v>
+      </c>
+      <c r="F93">
+        <v>-0.04009849478793679</v>
+      </c>
+      <c r="G93">
+        <v>-0.05710597601174239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.07491885171183253</v>
+        <v>0.3162259945524105</v>
       </c>
       <c r="C94">
-        <v>-0.1599379755829273</v>
+        <v>-0.1777442430496481</v>
       </c>
       <c r="D94">
-        <v>0.2896422867292218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01690244975295475</v>
+      </c>
+      <c r="E94">
+        <v>-0.1745931604043559</v>
+      </c>
+      <c r="F94">
+        <v>-0.4825967057695743</v>
+      </c>
+      <c r="G94">
+        <v>0.4372311884306266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001855422387279706</v>
+        <v>0.1010852673223272</v>
       </c>
       <c r="C95">
-        <v>-0.01872934665141393</v>
+        <v>-0.09020534143371939</v>
       </c>
       <c r="D95">
-        <v>0.128952823910376</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01125658444107126</v>
+      </c>
+      <c r="E95">
+        <v>0.0605175096857432</v>
+      </c>
+      <c r="F95">
+        <v>0.2034287082449774</v>
+      </c>
+      <c r="G95">
+        <v>0.0298516451278974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.04402181395958451</v>
+        <v>0.197008313114747</v>
       </c>
       <c r="C98">
-        <v>-0.1373830683228472</v>
+        <v>-0.04713205828105085</v>
       </c>
       <c r="D98">
-        <v>0.1563770048109708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01332534138426827</v>
+      </c>
+      <c r="E98">
+        <v>0.06678688838783214</v>
+      </c>
+      <c r="F98">
+        <v>0.2408640446643767</v>
+      </c>
+      <c r="G98">
+        <v>0.008642824332440917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01087736192813971</v>
+        <v>0.009154526090851576</v>
       </c>
       <c r="C101">
-        <v>-0.01053066952544973</v>
+        <v>-0.02243640927441713</v>
       </c>
       <c r="D101">
-        <v>0.01769339188061777</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008797016956002544</v>
+      </c>
+      <c r="E101">
+        <v>0.001872412660894457</v>
+      </c>
+      <c r="F101">
+        <v>-0.0178732344479626</v>
+      </c>
+      <c r="G101">
+        <v>-0.09541833389106787</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02560568246390215</v>
+        <v>0.1164302691985064</v>
       </c>
       <c r="C102">
-        <v>-0.04159953680730331</v>
+        <v>-0.08363769029453491</v>
       </c>
       <c r="D102">
-        <v>0.1309745120132566</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0006951999822586759</v>
+      </c>
+      <c r="E102">
+        <v>-0.035061039211046</v>
+      </c>
+      <c r="F102">
+        <v>-0.04361485221436098</v>
+      </c>
+      <c r="G102">
+        <v>-0.01665267930569722</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9181463259771984</v>
+        <v>0.02104176458591318</v>
       </c>
       <c r="C104">
-        <v>0.37151546769185</v>
+        <v>0.02935800205217117</v>
       </c>
       <c r="D104">
-        <v>-0.03656690377724279</v>
+        <v>-0.9878519946297629</v>
+      </c>
+      <c r="E104">
+        <v>-0.04569501822409847</v>
+      </c>
+      <c r="F104">
+        <v>-0.03603632344801366</v>
+      </c>
+      <c r="G104">
+        <v>0.03764750010366976</v>
       </c>
     </row>
   </sheetData>
